--- a/FunWorld_War/Assets/Excel/Avalue.xlsx
+++ b/FunWorld_War/Assets/Excel/Avalue.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="24045" windowHeight="13515"/>
   </bookViews>
   <sheets>
     <sheet name="Avalue" sheetId="1" r:id="rId1"/>
@@ -269,18 +269,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF008000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -601,7 +595,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -625,16 +619,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -643,96 +637,99 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1054,7 +1051,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1067,7 +1064,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="29" customHeight="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1076,31 +1073,31 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:6">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
